--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/14.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/14.xlsx
@@ -479,13 +479,13 @@
         <v>-18.89216120216068</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.7332328744741</v>
+        <v>-11.82507537890881</v>
       </c>
       <c r="F2" t="n">
-        <v>2.150879350816717</v>
+        <v>0.8878779879782447</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.90921642591871</v>
+        <v>-11.0521058191333</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.69006169674416</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.34756300071641</v>
+        <v>-12.40179131908684</v>
       </c>
       <c r="F3" t="n">
-        <v>2.253182605221964</v>
+        <v>0.9941482101445351</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.65505555085228</v>
+        <v>-10.85395381562378</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.47025352008566</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.90039858051114</v>
+        <v>-12.92354577193531</v>
       </c>
       <c r="F4" t="n">
-        <v>2.113644841534848</v>
+        <v>0.8568885071518791</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.41888349989038</v>
+        <v>-10.69850890398397</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.25110108862367</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.47567436737658</v>
+        <v>-13.46908893904719</v>
       </c>
       <c r="F5" t="n">
-        <v>2.314821167000811</v>
+        <v>1.1038617079582</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.17200194520395</v>
+        <v>-10.49645539422761</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.03006261553543</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.24860465024356</v>
+        <v>-14.20018931433486</v>
       </c>
       <c r="F6" t="n">
-        <v>2.296439573811027</v>
+        <v>1.087417775588992</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.672831714757463</v>
+        <v>-10.1443117246937</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.80696051602551</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.81322330259584</v>
+        <v>-14.75485781652743</v>
       </c>
       <c r="F7" t="n">
-        <v>2.363498348966348</v>
+        <v>1.18297849403075</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.515475326902756</v>
+        <v>-10.09199488253816</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.58365955021858</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.6234535562589</v>
+        <v>-15.49093326689495</v>
       </c>
       <c r="F8" t="n">
-        <v>2.671403127198062</v>
+        <v>1.481077137434011</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.893407649680984</v>
+        <v>-9.472676588913155</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-17.34922859525029</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.46659785926606</v>
+        <v>-16.34134379797927</v>
       </c>
       <c r="F9" t="n">
-        <v>2.723327200268348</v>
+        <v>1.572880364960194</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.249750765073205</v>
+        <v>-8.880341531444941</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-17.08906232869442</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.09898227112711</v>
+        <v>-17.02155439212115</v>
       </c>
       <c r="F10" t="n">
-        <v>3.009210725120278</v>
+        <v>1.812705168414932</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.632186840028987</v>
+        <v>-8.297223455177305</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.80289592221165</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.06038934570358</v>
+        <v>-17.99922210682704</v>
       </c>
       <c r="F11" t="n">
-        <v>3.160007869251279</v>
+        <v>1.980181906366292</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.314240265517669</v>
+        <v>-8.014822482881273</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.47855659446373</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.98574021825394</v>
+        <v>-18.9007580805083</v>
       </c>
       <c r="F12" t="n">
-        <v>3.444451240790619</v>
+        <v>2.217440618464052</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.744031199851974</v>
+        <v>-7.500975780949208</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-16.10559941951505</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.60033219055309</v>
+        <v>-19.4613050266768</v>
       </c>
       <c r="F13" t="n">
-        <v>3.425545955487167</v>
+        <v>2.16706143712909</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.031652817627975</v>
+        <v>-6.837614980564632</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.69538933793481</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.54123671887941</v>
+        <v>-20.42264663973906</v>
       </c>
       <c r="F14" t="n">
-        <v>3.853219120114991</v>
+        <v>2.63270227999792</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.225847762325419</v>
+        <v>-6.033760678385493</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.24613444655823</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.4455744453688</v>
+        <v>-21.3143241093805</v>
       </c>
       <c r="F15" t="n">
-        <v>3.916952450348513</v>
+        <v>2.700703700957845</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.880603736389102</v>
+        <v>-5.702761077940974</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.75909429099597</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.23594367562096</v>
+        <v>-22.04609219211309</v>
       </c>
       <c r="F16" t="n">
-        <v>4.087152387290952</v>
+        <v>2.880461018974743</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.465093321101243</v>
+        <v>-5.253079752236209</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.25610682639735</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.15067669056668</v>
+        <v>-22.92736128099536</v>
       </c>
       <c r="F17" t="n">
-        <v>4.437947549632161</v>
+        <v>3.186611428625666</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.419741584057503</v>
+        <v>-5.254951951542576</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.74486879722378</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.09925330835826</v>
+        <v>-23.92936758668402</v>
       </c>
       <c r="F18" t="n">
-        <v>4.280918469348498</v>
+        <v>3.086952819394447</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.146636146779097</v>
+        <v>-5.018871546700572</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.23403754641398</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.79653626540575</v>
+        <v>-24.5693848111018</v>
       </c>
       <c r="F19" t="n">
-        <v>4.529331823467408</v>
+        <v>3.355659242918033</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.124588708793631</v>
+        <v>-4.995554155339458</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.74789490393118</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.21721814031609</v>
+        <v>-25.0231247506875</v>
       </c>
       <c r="F20" t="n">
-        <v>4.762924690769484</v>
+        <v>3.625072650795072</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.811250624882601</v>
+        <v>-4.708125738752203</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.29304169436495</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.88711199981869</v>
+        <v>-25.72238464546409</v>
       </c>
       <c r="F21" t="n">
-        <v>4.675991799900424</v>
+        <v>3.554845538352053</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.840459552522492</v>
+        <v>-4.64385562410217</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.87389888467385</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.38976478282108</v>
+        <v>-26.23801190058263</v>
       </c>
       <c r="F22" t="n">
-        <v>4.836817648008187</v>
+        <v>3.763117891958232</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.846180888864326</v>
+        <v>-4.736339651376123</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.50636731468449</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.81823657792225</v>
+        <v>-26.68473436584516</v>
       </c>
       <c r="F23" t="n">
-        <v>4.81856697784682</v>
+        <v>3.743872206780894</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.943561437401085</v>
+        <v>-4.757732474219504</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.18878749318056</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.23883989901554</v>
+        <v>-27.06579893235644</v>
       </c>
       <c r="F24" t="n">
-        <v>5.043440371456307</v>
+        <v>3.956150805056641</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.210552769252404</v>
+        <v>-4.998460646570321</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.91806715890385</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.31752463909431</v>
+        <v>-27.18653614916284</v>
       </c>
       <c r="F25" t="n">
-        <v>4.849333889524877</v>
+        <v>3.774010687922548</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.924053906166913</v>
+        <v>-4.6835253017126</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.70055322100884</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.67291519973297</v>
+        <v>-27.58980526129369</v>
       </c>
       <c r="F26" t="n">
-        <v>4.976643442357821</v>
+        <v>3.982021195471892</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.962702384155688</v>
+        <v>-4.739285419515512</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.52720124368804</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.58031334173344</v>
+        <v>-27.44283106959247</v>
       </c>
       <c r="F27" t="n">
-        <v>4.991306821540554</v>
+        <v>3.940178195589735</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.879134215116951</v>
+        <v>-4.687623192502061</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.38873367797119</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.87672307807011</v>
+        <v>-27.70470331103267</v>
       </c>
       <c r="F28" t="n">
-        <v>4.75030371083006</v>
+        <v>3.690926934088954</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.007883921262485</v>
+        <v>-4.757169505197309</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.28387636632639</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.90529048287076</v>
+        <v>-27.68236784238469</v>
       </c>
       <c r="F29" t="n">
-        <v>4.865358868203149</v>
+        <v>3.829260205914632</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.069797421401007</v>
+        <v>-4.796420229116804</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.19891877421621</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.57271980608524</v>
+        <v>-27.35940691588499</v>
       </c>
       <c r="F30" t="n">
-        <v>4.712964463125458</v>
+        <v>3.681919429733846</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.224626994807259</v>
+        <v>-4.898998421881728</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.12292884127874</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.36455219090179</v>
+        <v>-27.11624357520562</v>
       </c>
       <c r="F31" t="n">
-        <v>4.704899604574955</v>
+        <v>3.653299655721833</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.127573753841545</v>
+        <v>-4.78167829611702</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.053133663824</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.06756639324008</v>
+        <v>-26.83993052373098</v>
       </c>
       <c r="F32" t="n">
-        <v>4.668503002674957</v>
+        <v>3.607633703409893</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.369715894899268</v>
+        <v>-4.989950649723199</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.978384772904191</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.85595550240926</v>
+        <v>-26.62994307845254</v>
       </c>
       <c r="F33" t="n">
-        <v>4.730246302876536</v>
+        <v>3.678175031121113</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.715418151435045</v>
+        <v>-5.325035048654335</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.893712862104802</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.36092243966075</v>
+        <v>-26.13903409109918</v>
       </c>
       <c r="F34" t="n">
-        <v>4.680993059585963</v>
+        <v>3.589775802333778</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.913949831726979</v>
+        <v>-5.485428850768322</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.802659525935852</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.04755817114404</v>
+        <v>-25.79162983519398</v>
       </c>
       <c r="F35" t="n">
-        <v>4.650199963302224</v>
+        <v>3.57985183677975</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.079947139457224</v>
+        <v>-5.598192855144108</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.701989746769172</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.76510482963664</v>
+        <v>-25.50848260163597</v>
       </c>
       <c r="F36" t="n">
-        <v>4.678008014538049</v>
+        <v>3.579982759808167</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.115937879969128</v>
+        <v>-5.543165906300334</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.595638797542605</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.29215848178213</v>
+        <v>-25.0481310491152</v>
       </c>
       <c r="F37" t="n">
-        <v>4.487619746613669</v>
+        <v>3.34979389124494</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.451244848048575</v>
+        <v>-5.838842473677875</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.49383161520762</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.76110849391604</v>
+        <v>-24.47445252319644</v>
       </c>
       <c r="F38" t="n">
-        <v>4.873973603473005</v>
+        <v>3.777048102181828</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.415777799650339</v>
+        <v>-5.798557457833884</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.399122652125369</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.38738870929897</v>
+        <v>-24.11107565782434</v>
       </c>
       <c r="F39" t="n">
-        <v>4.822992176207324</v>
+        <v>3.71281726444032</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.674678088345472</v>
+        <v>-6.069293188297937</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.319726244688159</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.81818775095208</v>
+        <v>-23.54794952799601</v>
       </c>
       <c r="F40" t="n">
-        <v>4.880441201076818</v>
+        <v>3.724024275672838</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.613720326314396</v>
+        <v>-5.945531649535101</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.265316942640732</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.36080815117638</v>
+        <v>-23.08461293042733</v>
       </c>
       <c r="F41" t="n">
-        <v>5.063576333226882</v>
+        <v>3.870500959866069</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.88415493381309</v>
+        <v>-6.203764230785306</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.234737622474812</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.80793329447313</v>
+        <v>-22.55162528174066</v>
       </c>
       <c r="F42" t="n">
-        <v>5.048598738775947</v>
+        <v>3.907264146245636</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.98450743509492</v>
+        <v>-6.320547572133503</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.230038025344466</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.18590489415989</v>
+        <v>-21.91591542495781</v>
       </c>
       <c r="F43" t="n">
-        <v>4.977245688288541</v>
+        <v>3.845808876706573</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.897862574888377</v>
+        <v>-6.146577051972646</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.252140610463895</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.92183314584227</v>
+        <v>-21.68173340402786</v>
       </c>
       <c r="F44" t="n">
-        <v>5.082848203009902</v>
+        <v>3.881289017407651</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.835242090396401</v>
+        <v>-6.023038082358119</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.293107180130878</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.20060436689727</v>
+        <v>-20.91851760986944</v>
       </c>
       <c r="F45" t="n">
-        <v>4.969495045006239</v>
+        <v>3.785636652846001</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.839902950208055</v>
+        <v>-6.028432111128911</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.351125977685982</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.65178812407495</v>
+        <v>-20.35185655827385</v>
       </c>
       <c r="F46" t="n">
-        <v>4.713331047605026</v>
+        <v>3.503837926480688</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.849892377276293</v>
+        <v>-6.017591684375962</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.425636896776728</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.84390139262056</v>
+        <v>-19.49357755318166</v>
       </c>
       <c r="F47" t="n">
-        <v>4.964127200841131</v>
+        <v>3.788386036442763</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.964973719255064</v>
+        <v>-6.086719043380275</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.510447070069244</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.13784659266911</v>
+        <v>-18.81283017462327</v>
       </c>
       <c r="F48" t="n">
-        <v>4.826658021003007</v>
+        <v>3.615174869846727</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.150295265979697</v>
+        <v>-6.319500187906164</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.604392437229787</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.62064826120957</v>
+        <v>-18.2607670406962</v>
       </c>
       <c r="F49" t="n">
-        <v>4.933229366134658</v>
+        <v>3.701688807024853</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.427066548053786</v>
+        <v>-6.620322030300504</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.708431845188636</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.0208898680301</v>
+        <v>-17.67797627199961</v>
       </c>
       <c r="F50" t="n">
-        <v>4.799059446612649</v>
+        <v>3.59600773848644</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.29398328966764</v>
+        <v>-6.43938640502785</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.81969955549676</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.58032078510317</v>
+        <v>-17.26825265456779</v>
       </c>
       <c r="F51" t="n">
-        <v>4.952003728409693</v>
+        <v>3.721850953401111</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.56955007988029</v>
+        <v>-6.695746786971688</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.938833181259524</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.28920033911455</v>
+        <v>-16.93314207103097</v>
       </c>
       <c r="F52" t="n">
-        <v>4.822704145544806</v>
+        <v>3.582889251039031</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.588769580451944</v>
+        <v>-6.689043527916724</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.06759392556877</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.35776154574279</v>
+        <v>-15.97989150112489</v>
       </c>
       <c r="F53" t="n">
-        <v>4.872821480822934</v>
+        <v>3.639081414835719</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.680350238829819</v>
+        <v>-6.766824899099419</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.20464764662225</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.69730723658908</v>
+        <v>-15.3326211409328</v>
       </c>
       <c r="F54" t="n">
-        <v>4.724250028175025</v>
+        <v>3.512138446482343</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.10125468288847</v>
+        <v>-7.184403898236272</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.34882307261105</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.30976198017115</v>
+        <v>-14.88783633649084</v>
       </c>
       <c r="F55" t="n">
-        <v>4.802620552985598</v>
+        <v>3.580951590218455</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.349942975367057</v>
+        <v>-7.431730591219319</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.49934123857524</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.20095185125356</v>
+        <v>-14.77818830019138</v>
       </c>
       <c r="F56" t="n">
-        <v>4.651718670431864</v>
+        <v>3.4329300142899</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.552402346511508</v>
+        <v>-7.5543138227264</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.65388847220428</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.85489610254106</v>
+        <v>-14.39924468674046</v>
       </c>
       <c r="F57" t="n">
-        <v>4.698432006971142</v>
+        <v>3.538323052165795</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.419397641942413</v>
+        <v>-7.401002956449788</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.80824942668682</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.66531955739286</v>
+        <v>-14.2746583328986</v>
       </c>
       <c r="F58" t="n">
-        <v>4.59510755294424</v>
+        <v>3.428295339083929</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.666069719783374</v>
+        <v>-7.689138357390496</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.95912863261346</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.02645445562516</v>
+        <v>-13.65565425454179</v>
       </c>
       <c r="F59" t="n">
-        <v>4.630587693645317</v>
+        <v>3.466420124959035</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.034212183389869</v>
+        <v>-8.102619465737888</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.10416183648486</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.71830092363945</v>
+        <v>-13.25266008077062</v>
       </c>
       <c r="F60" t="n">
-        <v>4.747056819725312</v>
+        <v>3.612425486249965</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.07653959847717</v>
+        <v>-8.101074574002565</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.23656741593412</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.58208860487413</v>
+        <v>-13.16947158851429</v>
       </c>
       <c r="F61" t="n">
-        <v>4.711890894292436</v>
+        <v>3.590561340504282</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.244278182485365</v>
+        <v>-8.284497736815146</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.35061279959932</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.24777665181066</v>
+        <v>-12.85728562725334</v>
       </c>
       <c r="F62" t="n">
-        <v>4.66564888065546</v>
+        <v>3.567597441319895</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.389825313176832</v>
+        <v>-8.400993047500824</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.44546943591312</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.76845435247222</v>
+        <v>-12.36509359422149</v>
       </c>
       <c r="F63" t="n">
-        <v>4.533547544982444</v>
+        <v>3.404833932391556</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.477006957799887</v>
+        <v>-8.459502548900499</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.51425777227221</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.6758524944727</v>
+        <v>-12.22488812308944</v>
       </c>
       <c r="F64" t="n">
-        <v>4.483613501944101</v>
+        <v>3.385300216551701</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.31759507839903</v>
+        <v>-8.309346927608743</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.55226946741879</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.51603475368375</v>
+        <v>-12.08244386817146</v>
       </c>
       <c r="F65" t="n">
-        <v>4.383823969684465</v>
+        <v>3.264039307631634</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.434993757980788</v>
+        <v>-8.476732019440211</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.56217256532379</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.55481415470094</v>
+        <v>-12.16089294679908</v>
       </c>
       <c r="F66" t="n">
-        <v>4.416580911394464</v>
+        <v>3.313109258682423</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.573601968166141</v>
+        <v>-8.599721112335386</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.5389227167957</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.45406888433386</v>
+        <v>-12.03717068494477</v>
       </c>
       <c r="F67" t="n">
-        <v>4.320247747085043</v>
+        <v>3.14476842874351</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.538999011755459</v>
+        <v>-8.518234619448481</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.48047182136672</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.1561273485647</v>
+        <v>-11.7951070977041</v>
       </c>
       <c r="F68" t="n">
-        <v>4.063717165204262</v>
+        <v>2.902115687874959</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.547103147214488</v>
+        <v>-8.499342426447871</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.3929215324099</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.14685799815275</v>
+        <v>-11.75501846640273</v>
       </c>
       <c r="F69" t="n">
-        <v>3.991761868786136</v>
+        <v>2.799917171892445</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.436617203533162</v>
+        <v>-8.401582201128702</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.27362310888687</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.24700102258912</v>
+        <v>-11.88696269444165</v>
       </c>
       <c r="F70" t="n">
-        <v>3.915407558613189</v>
+        <v>2.728118983108419</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.520905449228195</v>
+        <v>-8.481929663668376</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.12282402719081</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.34044078797052</v>
+        <v>-12.02413075131441</v>
       </c>
       <c r="F71" t="n">
-        <v>3.87589498863686</v>
+        <v>2.686799675339932</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.439065464164564</v>
+        <v>-8.373839611407085</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.94936980635921</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.30702923111843</v>
+        <v>-11.98345296638517</v>
       </c>
       <c r="F72" t="n">
-        <v>3.691476810808306</v>
+        <v>2.508430141424256</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.476862942468628</v>
+        <v>-8.388489898286977</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.75284864567583</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.4793108442127</v>
+        <v>-12.17102638919858</v>
       </c>
       <c r="F73" t="n">
-        <v>3.553405385039464</v>
+        <v>2.332155375963256</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.128974271358283</v>
+        <v>-8.036254582633179</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.53562167338886</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.78205725512478</v>
+        <v>-12.49034765550828</v>
       </c>
       <c r="F74" t="n">
-        <v>3.585088757916441</v>
+        <v>2.340822480444479</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.858029064048762</v>
+        <v>-7.761394776773981</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.30938585216171</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.03103357826588</v>
+        <v>-12.7887474218769</v>
       </c>
       <c r="F75" t="n">
-        <v>3.45332782211731</v>
+        <v>2.214298465782038</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.559747128405717</v>
+        <v>-7.437203173807161</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.07672101062182</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.19721417823591</v>
+        <v>-12.92659627849743</v>
       </c>
       <c r="F76" t="n">
-        <v>3.32051950209084</v>
+        <v>2.059992584489454</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.559223436292048</v>
+        <v>-7.418821580617378</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.842847165501702</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.54325683464557</v>
+        <v>-13.27415764203674</v>
       </c>
       <c r="F77" t="n">
-        <v>3.466341571141985</v>
+        <v>2.170517805079306</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.425092793678564</v>
+        <v>-7.287309398572239</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.620582636408493</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.77806728611193</v>
+        <v>-13.5674252256914</v>
       </c>
       <c r="F78" t="n">
-        <v>3.325389838747963</v>
+        <v>2.030142134010319</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.128709241947569</v>
+        <v>-6.943741187399663</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.412250330616303</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.11350517721979</v>
+        <v>-13.89706322664038</v>
       </c>
       <c r="F79" t="n">
-        <v>3.073232086016318</v>
+        <v>1.759314757426373</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.159004830723323</v>
+        <v>-7.004568026402323</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.222261483432936</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.60527825656071</v>
+        <v>-14.38338990799913</v>
       </c>
       <c r="F80" t="n">
-        <v>3.287814929592209</v>
+        <v>1.965649450211976</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.068288264333003</v>
+        <v>-6.88970925357186</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.060896143001298</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.07031685349882</v>
+        <v>-14.83994469269581</v>
       </c>
       <c r="F81" t="n">
-        <v>3.219132708884513</v>
+        <v>1.903565750136511</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.982991911319158</v>
+        <v>-6.823658585735352</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.927472509265682</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.73615209912048</v>
+        <v>-15.49571195743218</v>
       </c>
       <c r="F82" t="n">
-        <v>3.267024352679547</v>
+        <v>1.952059639862265</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.879130672875745</v>
+        <v>-6.721761192718198</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.823044149014043</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.45281166437372</v>
+        <v>-16.1871033782009</v>
       </c>
       <c r="F83" t="n">
-        <v>3.313894796852927</v>
+        <v>1.964968650464207</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.86809386158017</v>
+        <v>-6.724248730258126</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.752546830055536</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.27355503721869</v>
+        <v>-17.01246833394899</v>
       </c>
       <c r="F84" t="n">
-        <v>3.323844947012639</v>
+        <v>1.965937480874494</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.521239482394321</v>
+        <v>-6.427341486413462</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.709851315909379</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.60928414234295</v>
+        <v>-18.35653723598343</v>
       </c>
       <c r="F85" t="n">
-        <v>3.274722626750482</v>
+        <v>1.934489769448668</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.175563410464228</v>
+        <v>-6.059251392018334</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.691367356518587</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.61712961509902</v>
+        <v>-19.42005118042252</v>
       </c>
       <c r="F86" t="n">
-        <v>3.224971875951923</v>
+        <v>1.914118146226943</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.795834258842805</v>
+        <v>-5.679836455665113</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.696519258057807</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.66345336590693</v>
+        <v>-20.42722894573366</v>
       </c>
       <c r="F87" t="n">
-        <v>3.120076345584014</v>
+        <v>1.755072851305654</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.702813447152342</v>
+        <v>-5.585296936845008</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.715356906512136</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.05077923653043</v>
+        <v>-21.8763766703758</v>
       </c>
       <c r="F88" t="n">
-        <v>3.079594945197397</v>
+        <v>1.712103913379109</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.362623050112932</v>
+        <v>-5.253105936841893</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.743029758085447</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.58887606667925</v>
+        <v>-23.40177396676814</v>
       </c>
       <c r="F89" t="n">
-        <v>3.206014221437104</v>
+        <v>1.823257564505364</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.492380863577279</v>
+        <v>-5.396571391381527</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.778461950454622</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.98235531963837</v>
+        <v>-24.78768586868474</v>
       </c>
       <c r="F90" t="n">
-        <v>3.18907278155991</v>
+        <v>1.815925874913997</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.430231701987605</v>
+        <v>-5.310987007705164</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.813758596938584</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.42858346074679</v>
+        <v>-26.25346081793587</v>
       </c>
       <c r="F91" t="n">
-        <v>3.105203489555813</v>
+        <v>1.75344940575328</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.273438283155094</v>
+        <v>-5.187814622570205</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.847316543445167</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.12728356985507</v>
+        <v>-27.95748949430072</v>
       </c>
       <c r="F92" t="n">
-        <v>3.161369468746818</v>
+        <v>1.793223821786444</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.450236740729762</v>
+        <v>-5.383479088539801</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.880173557910732</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.03746364676574</v>
+        <v>-29.85548063726575</v>
       </c>
       <c r="F93" t="n">
-        <v>3.186297213357465</v>
+        <v>1.830851100153565</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.767934561487087</v>
+        <v>-5.757316703882447</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.90659857957233</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.17643171583558</v>
+        <v>-32.02530726413354</v>
       </c>
       <c r="F94" t="n">
-        <v>3.134739724766747</v>
+        <v>1.784373425065437</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.584969629273965</v>
+        <v>-5.569978942520189</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.926859304244479</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.0869391003173</v>
+        <v>-33.85537553995569</v>
       </c>
       <c r="F95" t="n">
-        <v>2.952390130787187</v>
+        <v>1.616870502508394</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.842181010902515</v>
+        <v>-5.848596239294961</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.941780489937722</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.56637250478622</v>
+        <v>-36.30563929369325</v>
       </c>
       <c r="F96" t="n">
-        <v>2.946158194634525</v>
+        <v>1.701918101768247</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.098619946663404</v>
+        <v>-6.18195245425099</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.947034297562945</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.8591620399435</v>
+        <v>-38.57106591591132</v>
       </c>
       <c r="F97" t="n">
-        <v>2.929033462517547</v>
+        <v>1.739440641712633</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.465453179985727</v>
+        <v>-6.599452899570793</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.94092478700485</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.13226075162682</v>
+        <v>-40.81866082165896</v>
       </c>
       <c r="F98" t="n">
-        <v>2.461821543307711</v>
+        <v>1.317423351912435</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.53048264820058</v>
+        <v>-6.661667522674676</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.922366221528053</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.42522048672105</v>
+        <v>-43.05977503749995</v>
       </c>
       <c r="F99" t="n">
-        <v>2.413301468976274</v>
+        <v>1.243988625273194</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.841581948325675</v>
+        <v>-7.029482678710128</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.886343314328689</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.70588654944688</v>
+        <v>-45.35137317309862</v>
       </c>
       <c r="F100" t="n">
-        <v>2.159729747537724</v>
+        <v>1.022885814882124</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.888334561773479</v>
+        <v>-7.105418035192138</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.829615397156035</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.81682399813258</v>
+        <v>-47.37889956037969</v>
       </c>
       <c r="F101" t="n">
-        <v>1.843550633910039</v>
+        <v>0.7669182020235376</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.819992740939669</v>
+        <v>-7.12742619626908</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.748597105974566</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.42828018445748</v>
+        <v>-49.98290622638764</v>
       </c>
       <c r="F102" t="n">
-        <v>1.69694302668839</v>
+        <v>0.7575702977945451</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.033410369562645</v>
+        <v>-7.416936289008169</v>
       </c>
     </row>
   </sheetData>
